--- a/BackTest/2020-01-19 BackTest AMO.xlsx
+++ b/BackTest/2020-01-19 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1408,7 +1408,7 @@
         <v>4044885.986700004</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>4680568.165700004</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>5998365.314700005</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>7256832.127700005</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>6045538.560600004</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -15400,10 +15400,14 @@
         <v>-34614411.42680047</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.2567</v>
+      </c>
       <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
@@ -15436,8 +15440,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15469,8 +15479,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15499,10 +15515,14 @@
         <v>-35635556.89180046</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.2569</v>
+      </c>
       <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
@@ -15535,8 +15555,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15568,8 +15594,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15664,10 +15696,14 @@
         <v>-34677795.74380046</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.2567</v>
+      </c>
       <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
@@ -15700,8 +15736,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15733,8 +15775,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15994,10 +16042,14 @@
         <v>-34730709.04280046</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="J473" t="n">
+        <v>0.2566</v>
+      </c>
       <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
@@ -16027,11 +16079,19 @@
         <v>-33650233.23980046</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="J474" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16060,11 +16120,19 @@
         <v>-35179924.44880046</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="J475" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16093,10 +16161,14 @@
         <v>-33870603.06180046</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="J476" t="n">
+        <v>0.2567</v>
+      </c>
       <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
@@ -16126,11 +16198,19 @@
         <v>-33870603.06180046</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="J477" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16162,8 +16242,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16324,10 +16410,14 @@
         <v>-34849369.71680045</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="J483" t="n">
+        <v>0.2566</v>
+      </c>
       <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
@@ -16357,11 +16447,19 @@
         <v>-33684136.29080045</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="J484" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16390,11 +16488,19 @@
         <v>-33684136.29080045</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="J485" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16423,10 +16529,14 @@
         <v>-32230726.94380045</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="J486" t="n">
+        <v>0.2567</v>
+      </c>
       <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
@@ -16459,8 +16569,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16489,11 +16605,19 @@
         <v>-32476524.05280045</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="J488" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16522,10 +16646,14 @@
         <v>-31285863.33880045</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="J489" t="n">
+        <v>0.2567</v>
+      </c>
       <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
@@ -16558,8 +16686,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16591,8 +16725,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16621,10 +16761,14 @@
         <v>-31270860.37190045</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="J492" t="n">
+        <v>0.2566</v>
+      </c>
       <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
@@ -16657,8 +16801,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16690,8 +16840,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16753,10 +16909,14 @@
         <v>-30584323.61890045</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="J496" t="n">
+        <v>0.2566</v>
+      </c>
       <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
@@ -16789,8 +16949,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16822,8 +16988,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16855,8 +17027,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16885,11 +17063,17 @@
         <v>295443.2238995498</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16918,11 +17102,17 @@
         <v>-810459.8661004503</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16951,11 +17141,17 @@
         <v>-1577332.46110045</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16984,11 +17180,17 @@
         <v>-140874.6381004502</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17017,11 +17219,17 @@
         <v>-1373914.16310045</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17050,11 +17258,17 @@
         <v>-2471341.49010045</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17083,11 +17297,17 @@
         <v>-2471341.49010045</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17119,8 +17339,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17152,8 +17378,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17185,8 +17417,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17215,13 +17453,19 @@
         <v>-234108.02410045</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L510" t="n">
-        <v>1</v>
+        <v>0.9992868277474668</v>
       </c>
       <c r="M510" t="inlineStr"/>
     </row>
@@ -17248,7 +17492,7 @@
         <v>-234108.02410045</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17525,7 @@
         <v>-1221350.44010045</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17558,7 @@
         <v>-2573050.63910045</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17591,7 @@
         <v>-1568856.69810045</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17624,7 @@
         <v>-1568856.69810045</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17657,7 @@
         <v>5556237.908999549</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17690,7 @@
         <v>4114020.477099549</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17723,7 @@
         <v>5491147.963099549</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17756,7 @@
         <v>4003835.566099549</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17789,7 @@
         <v>2719941.466099549</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17822,7 @@
         <v>2712307.130808515</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17855,7 @@
         <v>1886104.199808516</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17888,7 @@
         <v>431296.1570085157</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17921,7 @@
         <v>-1013637.427991484</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17954,7 @@
         <v>47988.97480851575</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17987,7 @@
         <v>-1325.386291484254</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +18020,7 @@
         <v>1392753.624708516</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +18053,7 @@
         <v>2100295.882708516</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +18086,7 @@
         <v>824877.5457085154</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +18119,7 @@
         <v>2193529.269708515</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +18152,7 @@
         <v>1053723.130708515</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +18185,7 @@
         <v>-35228.43429148477</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +18218,7 @@
         <v>1367326.338708515</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18251,7 @@
         <v>2681778.656718262</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18284,7 @@
         <v>1321602.695718262</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18317,7 @@
         <v>2546166.458718262</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18350,7 @@
         <v>1118184.398718262</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18383,7 @@
         <v>2503787.646718262</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18416,7 @@
         <v>3279136.003718262</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18449,7 @@
         <v>1986766.141718262</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18482,7 @@
         <v>3135048.043718262</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18515,7 @@
         <v>3137851.844518261</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -21736,14 +21980,10 @@
         <v>6856564.468718259</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
-      </c>
-      <c r="I647" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="J647" t="n">
-        <v>0.2543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
@@ -21773,19 +22013,11 @@
         <v>8004846.370718258</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
-      </c>
-      <c r="I648" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="J648" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21814,19 +22046,11 @@
         <v>6890467.518718258</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
-      </c>
-      <c r="I649" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="J649" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21987,14 +22211,10 @@
         <v>7183311.210418259</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
-      </c>
-      <c r="I654" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="J654" t="n">
-        <v>0.2546</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
@@ -22024,19 +22244,11 @@
         <v>8240359.725418258</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
-      </c>
-      <c r="I655" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="J655" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22065,19 +22277,11 @@
         <v>8240359.725418258</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
-      </c>
-      <c r="I656" t="n">
-        <v>0.2549</v>
-      </c>
-      <c r="J656" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22106,19 +22310,11 @@
         <v>7337874.932418259</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
-      </c>
-      <c r="I657" t="n">
-        <v>0.2549</v>
-      </c>
-      <c r="J657" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22150,14 +22346,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22189,14 +22379,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22228,14 +22412,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22267,14 +22445,8 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22303,19 +22475,11 @@
         <v>7333820.952418259</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
-      </c>
-      <c r="I662" t="n">
-        <v>0.2549</v>
-      </c>
-      <c r="J662" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22344,19 +22508,11 @@
         <v>7333820.952418259</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
-      </c>
-      <c r="I663" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="J663" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22385,19 +22541,11 @@
         <v>6066878.377418259</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
-      </c>
-      <c r="I664" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="J664" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22426,19 +22574,11 @@
         <v>8337039.263318259</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
-      </c>
-      <c r="I665" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="J665" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22467,19 +22607,11 @@
         <v>7307418.035318259</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
-      </c>
-      <c r="I666" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="J666" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22511,14 +22643,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22547,19 +22673,11 @@
         <v>3126054.461618259</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
-      </c>
-      <c r="I668" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="J668" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22588,19 +22706,11 @@
         <v>4460803.135618259</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
-      </c>
-      <c r="I669" t="n">
-        <v>0.2539</v>
-      </c>
-      <c r="J669" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22629,19 +22739,11 @@
         <v>3761736.640618259</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
-      </c>
-      <c r="I670" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="J670" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22670,19 +22772,11 @@
         <v>5079533.789618259</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
-      </c>
-      <c r="I671" t="n">
-        <v>0.254</v>
-      </c>
-      <c r="J671" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22711,19 +22805,11 @@
         <v>6338000.602618259</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
-      </c>
-      <c r="I672" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="J672" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22752,19 +22838,11 @@
         <v>5376185.47361826</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
-      </c>
-      <c r="I673" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="J673" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22793,19 +22871,11 @@
         <v>5376185.47361826</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
-      </c>
-      <c r="I674" t="n">
-        <v>0.254</v>
-      </c>
-      <c r="J674" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22834,19 +22904,11 @@
         <v>6787216.00861826</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
-      </c>
-      <c r="I675" t="n">
-        <v>0.254</v>
-      </c>
-      <c r="J675" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22875,19 +22937,11 @@
         <v>5969488.83961826</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
-      </c>
-      <c r="I676" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="J676" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22916,19 +22970,11 @@
         <v>5969488.83961826</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
-      </c>
-      <c r="I677" t="n">
-        <v>0.2542</v>
-      </c>
-      <c r="J677" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22957,19 +23003,11 @@
         <v>7168625.31561826</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
-      </c>
-      <c r="I678" t="n">
-        <v>0.2542</v>
-      </c>
-      <c r="J678" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22998,19 +23036,11 @@
         <v>6424958.00861826</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
-      </c>
-      <c r="I679" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="J679" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23039,19 +23069,11 @@
         <v>7496958.04861826</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
-      </c>
-      <c r="I680" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="J680" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23083,14 +23105,8 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23119,19 +23135,11 @@
         <v>8145007.002818259</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
-      </c>
-      <c r="I682" t="n">
-        <v>0.2549</v>
-      </c>
-      <c r="J682" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23160,19 +23168,11 @@
         <v>9327191.95381826</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
-      </c>
-      <c r="I683" t="n">
-        <v>0.254</v>
-      </c>
-      <c r="J683" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23201,19 +23201,11 @@
         <v>10170346.40981826</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
-      </c>
-      <c r="I684" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="J684" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23245,14 +23237,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23284,14 +23270,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23320,19 +23300,11 @@
         <v>10221200.98381826</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
-      </c>
-      <c r="I687" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="J687" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23364,14 +23336,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23403,14 +23369,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23439,25 +23399,17 @@
         <v>10441570.80481826</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
-      </c>
-      <c r="I690" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="J690" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
       <c r="M690" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest AMO.xlsx
+++ b/BackTest/2020-01-19 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2167,7 +2167,7 @@
         <v>6045538.560600004</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-16978857.78265391</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-28067515.12601471</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-30525118.41401471</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-31270836.13380045</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -15400,14 +15400,10 @@
         <v>-34614411.42680047</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="J455" t="n">
-        <v>0.2567</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
@@ -15440,14 +15436,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15479,14 +15469,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15515,14 +15499,10 @@
         <v>-35635556.89180046</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>0.2569</v>
-      </c>
-      <c r="J458" t="n">
-        <v>0.2569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
@@ -15555,14 +15535,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>0.2569</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15594,14 +15568,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>0.2569</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15696,14 +15664,10 @@
         <v>-34677795.74380046</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="J463" t="n">
-        <v>0.2567</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
@@ -15736,14 +15700,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15775,14 +15733,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16042,14 +15994,10 @@
         <v>-34730709.04280046</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="J473" t="n">
-        <v>0.2566</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
@@ -16079,19 +16027,11 @@
         <v>-33650233.23980046</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="J474" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16120,19 +16060,11 @@
         <v>-35179924.44880046</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>0.2569</v>
-      </c>
-      <c r="J475" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16161,14 +16093,10 @@
         <v>-33870603.06180046</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="J476" t="n">
-        <v>0.2567</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
@@ -16198,19 +16126,11 @@
         <v>-33870603.06180046</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>0.2569</v>
-      </c>
-      <c r="J477" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16242,14 +16162,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16410,14 +16324,10 @@
         <v>-34849369.71680045</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="J483" t="n">
-        <v>0.2566</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
@@ -16447,19 +16357,11 @@
         <v>-33684136.29080045</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="J484" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16488,19 +16390,11 @@
         <v>-33684136.29080045</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="J485" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16529,14 +16423,10 @@
         <v>-32230726.94380045</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="J486" t="n">
-        <v>0.2567</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
@@ -16569,14 +16459,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16605,19 +16489,11 @@
         <v>-32476524.05280045</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="J488" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16646,14 +16522,10 @@
         <v>-31285863.33880045</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="J489" t="n">
-        <v>0.2567</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
@@ -16686,14 +16558,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16725,14 +16591,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16761,14 +16621,10 @@
         <v>-31270860.37190045</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="J492" t="n">
-        <v>0.2566</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
@@ -16798,17 +16654,15 @@
         <v>-29775072.21290045</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>0.2567</v>
+      </c>
       <c r="J493" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0.2567</v>
+      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16837,11 +16691,13 @@
         <v>-30584323.61890045</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>0.2568</v>
+      </c>
       <c r="J494" t="n">
-        <v>0.2566</v>
+        <v>0.2567</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -16879,8 +16735,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16946,9 +16808,11 @@
         <v>-29690314.58890045</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>0.2566</v>
+      </c>
       <c r="J497" t="n">
         <v>0.2566</v>
       </c>
@@ -17453,7 +17317,7 @@
         <v>-234108.02410045</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
@@ -17461,11 +17325,11 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L510" t="n">
-        <v>0.9992868277474668</v>
+        <v>1</v>
       </c>
       <c r="M510" t="inlineStr"/>
     </row>
@@ -17492,11 +17356,17 @@
         <v>-234108.02410045</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17525,11 +17395,17 @@
         <v>-1221350.44010045</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17558,11 +17434,17 @@
         <v>-2573050.63910045</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17591,11 +17473,17 @@
         <v>-1568856.69810045</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17624,11 +17512,17 @@
         <v>-1568856.69810045</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17657,11 +17551,17 @@
         <v>5556237.908999549</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17690,11 +17590,17 @@
         <v>4114020.477099549</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17723,11 +17629,17 @@
         <v>5491147.963099549</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17756,11 +17668,17 @@
         <v>4003835.566099549</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17789,11 +17707,17 @@
         <v>2719941.466099549</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17822,11 +17746,17 @@
         <v>2712307.130808515</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17855,11 +17785,17 @@
         <v>1886104.199808516</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17888,11 +17824,17 @@
         <v>431296.1570085157</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17921,11 +17863,17 @@
         <v>-1013637.427991484</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17954,11 +17902,17 @@
         <v>47988.97480851575</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17987,11 +17941,17 @@
         <v>-1325.386291484254</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18020,11 +17980,17 @@
         <v>1392753.624708516</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18053,11 +18019,17 @@
         <v>2100295.882708516</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18086,11 +18058,17 @@
         <v>824877.5457085154</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18119,11 +18097,17 @@
         <v>2193529.269708515</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18152,11 +18136,17 @@
         <v>1053723.130708515</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18185,11 +18175,17 @@
         <v>-35228.43429148477</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18218,11 +18214,17 @@
         <v>1367326.338708515</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18251,11 +18253,17 @@
         <v>2681778.656718262</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18284,11 +18292,17 @@
         <v>1321602.695718262</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18317,11 +18331,17 @@
         <v>2546166.458718262</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18350,11 +18370,17 @@
         <v>1118184.398718262</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18383,11 +18409,17 @@
         <v>2503787.646718262</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18416,11 +18448,17 @@
         <v>3279136.003718262</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18449,11 +18487,17 @@
         <v>1986766.141718262</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18482,11 +18526,17 @@
         <v>3135048.043718262</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18518,8 +18568,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18551,8 +18607,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18584,8 +18646,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18617,8 +18685,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18650,8 +18724,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18683,8 +18763,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18716,8 +18802,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18749,8 +18841,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18782,8 +18880,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18815,8 +18919,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18848,8 +18958,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18881,8 +18997,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18914,8 +19036,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18947,8 +19075,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18980,8 +19114,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19013,8 +19153,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19046,8 +19192,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19079,8 +19231,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19112,8 +19270,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19145,8 +19309,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19178,8 +19348,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19211,8 +19387,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19244,8 +19426,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19277,8 +19465,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19310,8 +19504,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19343,8 +19543,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19376,8 +19582,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19409,8 +19621,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19442,8 +19660,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19475,8 +19699,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19508,8 +19738,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19541,8 +19777,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19574,8 +19816,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19607,8 +19855,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19640,8 +19894,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19673,8 +19933,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19706,8 +19972,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19739,8 +20011,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19772,8 +20050,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19805,8 +20089,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19838,8 +20128,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19871,8 +20167,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19904,8 +20206,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19937,8 +20245,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19970,8 +20284,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20003,8 +20323,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20036,8 +20362,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20069,8 +20401,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20102,8 +20440,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20135,8 +20479,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20168,8 +20518,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20201,8 +20557,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20234,8 +20596,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20267,8 +20635,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20300,8 +20674,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20333,8 +20713,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20366,8 +20752,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20399,8 +20791,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20432,8 +20830,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20465,8 +20869,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20498,8 +20908,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20531,8 +20947,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20564,8 +20986,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20597,8 +21025,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20630,8 +21064,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20663,8 +21103,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20696,8 +21142,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20729,8 +21181,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20762,8 +21220,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20795,8 +21259,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20828,8 +21298,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20861,8 +21337,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20894,8 +21376,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20927,8 +21415,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20960,8 +21454,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20993,8 +21493,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21026,8 +21532,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21059,8 +21571,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21092,8 +21610,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21125,8 +21649,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21158,8 +21688,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21191,8 +21727,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21224,8 +21766,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21257,8 +21805,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21290,8 +21844,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21323,8 +21883,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21356,8 +21922,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21389,8 +21961,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21422,8 +22000,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21455,8 +22039,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21488,8 +22078,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21521,8 +22117,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21554,8 +22156,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21587,8 +22195,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21620,8 +22234,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21653,8 +22273,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21686,8 +22312,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21719,8 +22351,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21752,8 +22390,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21785,8 +22429,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21818,8 +22468,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21851,8 +22507,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21884,8 +22546,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21917,8 +22585,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21950,8 +22624,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21983,8 +22663,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22016,8 +22702,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22049,8 +22741,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22082,8 +22780,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22115,8 +22819,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22148,8 +22858,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22181,8 +22897,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22214,8 +22936,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22247,8 +22975,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22280,8 +23014,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22313,8 +23053,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22346,8 +23092,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22379,8 +23131,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22412,8 +23170,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22445,8 +23209,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22478,8 +23248,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22511,8 +23287,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22544,8 +23326,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22577,8 +23365,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22610,8 +23404,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22643,8 +23443,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22676,8 +23482,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22709,8 +23521,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22742,8 +23560,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22775,8 +23599,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22808,8 +23638,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22841,8 +23677,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22874,8 +23716,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22907,8 +23755,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22940,8 +23794,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22973,8 +23833,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23006,8 +23872,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23039,8 +23911,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23072,8 +23950,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23105,8 +23989,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23138,8 +24028,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23171,8 +24067,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23204,8 +24106,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23237,8 +24145,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23270,8 +24184,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23303,8 +24223,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23336,8 +24262,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23369,8 +24301,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23402,14 +24340,20 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
       <c r="M690" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest AMO.xlsx
+++ b/BackTest/2020-01-19 BackTest AMO.xlsx
@@ -6457,7 +6457,7 @@
         <v>-16978857.78265391</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -9790,10 +9790,14 @@
         <v>-28459297.4972147</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.2542</v>
+      </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
@@ -9826,8 +9830,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9859,8 +9869,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11242,7 +11258,7 @@
         <v>-28067515.12601471</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11308,7 +11324,7 @@
         <v>-30525118.41401471</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11374,7 +11390,7 @@
         <v>-31270836.13380045</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13519,10 +13535,14 @@
         <v>-33519972.21810943</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.2541</v>
+      </c>
       <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
@@ -13555,8 +13575,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13588,8 +13614,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13684,10 +13716,14 @@
         <v>-33570826.79310943</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.254</v>
+      </c>
       <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
@@ -13720,8 +13756,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13753,8 +13795,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13783,10 +13831,14 @@
         <v>-33630157.13010944</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.2542</v>
+      </c>
       <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
@@ -13819,8 +13871,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13852,8 +13910,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14410,10 +14474,14 @@
         <v>-36708344.94830944</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.254</v>
+      </c>
       <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
@@ -14446,8 +14514,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14479,8 +14553,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15202,10 +15282,14 @@
         <v>-32059098.98980046</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.2567</v>
+      </c>
       <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
@@ -15238,8 +15322,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15271,8 +15361,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15400,10 +15496,14 @@
         <v>-34614411.42680047</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.2567</v>
+      </c>
       <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
@@ -15436,8 +15536,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15466,11 +15572,19 @@
         <v>-34673741.76280046</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15499,10 +15613,14 @@
         <v>-35635556.89180046</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.2569</v>
+      </c>
       <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
@@ -15532,11 +15650,19 @@
         <v>-35635556.89180046</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15565,11 +15691,19 @@
         <v>-34224526.35680047</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15994,10 +16128,14 @@
         <v>-34730709.04280046</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="J473" t="n">
+        <v>0.2566</v>
+      </c>
       <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
@@ -16027,11 +16165,19 @@
         <v>-33650233.23980046</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="J474" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16060,11 +16206,19 @@
         <v>-35179924.44880046</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="J475" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16093,10 +16247,14 @@
         <v>-33870603.06180046</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="J476" t="n">
+        <v>0.2567</v>
+      </c>
       <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
@@ -16126,11 +16284,19 @@
         <v>-33870603.06180046</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="J477" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16159,11 +16325,19 @@
         <v>-33870603.06180046</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="J478" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16192,10 +16366,14 @@
         <v>-33870603.06180046</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="J479" t="n">
+        <v>0.2569</v>
+      </c>
       <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
@@ -16225,11 +16403,19 @@
         <v>-34840893.95380045</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="J480" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16258,11 +16444,19 @@
         <v>-33989263.73580045</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="J481" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16291,10 +16485,14 @@
         <v>-34849369.71680045</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="J482" t="n">
+        <v>0.2567</v>
+      </c>
       <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
@@ -16324,11 +16522,19 @@
         <v>-34849369.71680045</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="J483" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16357,11 +16563,19 @@
         <v>-33684136.29080045</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="J484" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16390,10 +16604,14 @@
         <v>-33684136.29080045</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="J485" t="n">
+        <v>0.2567</v>
+      </c>
       <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
@@ -16423,11 +16641,19 @@
         <v>-32230726.94380045</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="J486" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16456,11 +16682,19 @@
         <v>-33209493.59780045</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="J487" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16489,10 +16723,14 @@
         <v>-32476524.05280045</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="J488" t="n">
+        <v>0.2566</v>
+      </c>
       <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
@@ -16522,11 +16760,19 @@
         <v>-31285863.33880045</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="J489" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16555,11 +16801,19 @@
         <v>-32196823.89380045</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="J490" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16588,10 +16842,14 @@
         <v>-32198772.45190045</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="J491" t="n">
+        <v>0.2568</v>
+      </c>
       <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
@@ -16621,11 +16879,19 @@
         <v>-31270860.37190045</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="J492" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16660,9 +16926,13 @@
         <v>0.2567</v>
       </c>
       <c r="J493" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="K493" t="inlineStr"/>
+        <v>0.2568</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16697,13 +16967,9 @@
         <v>0.2568</v>
       </c>
       <c r="J494" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0.2568</v>
+      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16732,11 +16998,13 @@
         <v>-30584323.61890045</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>0.2566</v>
+      </c>
       <c r="J495" t="n">
-        <v>0.2567</v>
+        <v>0.2568</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -16777,9 +17045,13 @@
         <v>0.2566</v>
       </c>
       <c r="J496" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K496" t="inlineStr"/>
+        <v>0.2568</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16816,11 +17088,7 @@
       <c r="J497" t="n">
         <v>0.2566</v>
       </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16849,9 +17117,11 @@
         <v>-7807177.44210045</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0.2567</v>
+      </c>
       <c r="J498" t="n">
         <v>0.2566</v>
       </c>
@@ -17356,7 +17626,7 @@
         <v>-234108.02410045</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
@@ -17364,11 +17634,11 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L511" t="n">
-        <v>1</v>
+        <v>0.9992868277474668</v>
       </c>
       <c r="M511" t="inlineStr"/>
     </row>
@@ -17395,17 +17665,11 @@
         <v>-1221350.44010045</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17434,17 +17698,11 @@
         <v>-2573050.63910045</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17476,14 +17734,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17515,14 +17767,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17554,14 +17800,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17590,17 +17830,11 @@
         <v>4114020.477099549</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17629,17 +17863,11 @@
         <v>5491147.963099549</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17668,17 +17896,11 @@
         <v>4003835.566099549</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17707,17 +17929,11 @@
         <v>2719941.466099549</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17746,17 +17962,11 @@
         <v>2712307.130808515</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17785,17 +17995,11 @@
         <v>1886104.199808516</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17827,14 +18031,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17866,14 +18064,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17905,14 +18097,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17944,14 +18130,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17983,14 +18163,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18022,14 +18196,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18061,14 +18229,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18100,14 +18262,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18139,14 +18295,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18178,14 +18328,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18217,14 +18361,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18256,14 +18394,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18295,14 +18427,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18334,14 +18460,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18373,14 +18493,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18412,14 +18526,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18451,14 +18559,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18490,14 +18592,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18529,14 +18625,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18568,14 +18658,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18607,14 +18691,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18646,14 +18724,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18685,14 +18757,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18724,14 +18790,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18763,14 +18823,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18802,14 +18856,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18841,14 +18889,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18880,14 +18922,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18919,14 +18955,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18958,14 +18988,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18997,14 +19021,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19036,14 +19054,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19075,14 +19087,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19114,14 +19120,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19153,14 +19153,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19192,14 +19186,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19231,14 +19219,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19270,14 +19252,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19309,14 +19285,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19348,14 +19318,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19387,14 +19351,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19426,14 +19384,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19465,14 +19417,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19504,14 +19450,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19543,14 +19483,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19582,14 +19516,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19621,14 +19549,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19660,14 +19582,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19699,14 +19615,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19738,14 +19648,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19777,14 +19681,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19816,14 +19714,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19855,14 +19747,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19894,14 +19780,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19933,14 +19813,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19972,14 +19846,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20011,14 +19879,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20050,14 +19912,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20089,14 +19945,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20128,14 +19978,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20167,14 +20011,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20206,14 +20044,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20245,14 +20077,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20284,14 +20110,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20323,14 +20143,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20362,14 +20176,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20401,14 +20209,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20440,14 +20242,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20479,14 +20275,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20518,14 +20308,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20557,14 +20341,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20596,14 +20374,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20635,14 +20407,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20674,14 +20440,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20713,14 +20473,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20752,14 +20506,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20791,14 +20539,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20830,14 +20572,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20869,14 +20605,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20908,14 +20638,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20947,14 +20671,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20986,14 +20704,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21025,14 +20737,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21064,14 +20770,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21103,14 +20803,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21142,14 +20836,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21181,14 +20869,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21220,14 +20902,8 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21259,14 +20935,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21298,14 +20968,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21337,14 +21001,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21376,14 +21034,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21415,14 +21067,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21454,14 +21100,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21493,14 +21133,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21532,14 +21166,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21571,14 +21199,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21610,14 +21232,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21649,14 +21265,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21688,14 +21298,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21727,14 +21331,8 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21766,14 +21364,8 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21805,14 +21397,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21844,14 +21430,8 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21883,14 +21463,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21922,14 +21496,8 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21961,14 +21529,8 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22000,14 +21562,8 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22039,14 +21595,8 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22078,14 +21628,8 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22117,14 +21661,8 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22156,14 +21694,8 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22195,14 +21727,8 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22234,14 +21760,8 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22273,14 +21793,8 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22312,14 +21826,8 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22351,14 +21859,8 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22390,14 +21892,8 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22429,14 +21925,8 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22468,14 +21958,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22507,14 +21991,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22546,14 +22024,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22585,14 +22057,8 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22624,14 +22090,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22663,14 +22123,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22702,14 +22156,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22741,14 +22189,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22780,14 +22222,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22819,14 +22255,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22858,14 +22288,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22897,14 +22321,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22936,14 +22354,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22975,14 +22387,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23014,14 +22420,8 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23053,14 +22453,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23092,14 +22486,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23131,14 +22519,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23170,14 +22552,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23209,14 +22585,8 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23248,14 +22618,8 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23287,14 +22651,8 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23326,14 +22684,8 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23365,14 +22717,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23404,14 +22750,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23443,14 +22783,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23482,14 +22816,8 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23521,14 +22849,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23560,14 +22882,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23599,14 +22915,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23638,14 +22948,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23677,14 +22981,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23716,14 +23014,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23755,14 +23047,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23794,14 +23080,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23833,14 +23113,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23872,14 +23146,8 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23911,14 +23179,8 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23950,14 +23212,8 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23989,14 +23245,8 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24028,14 +23278,8 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24067,14 +23311,8 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24106,14 +23344,8 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24145,14 +23377,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24184,14 +23410,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24223,14 +23443,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24262,14 +23476,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24301,14 +23509,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24340,14 +23542,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
